--- a/data/input/absenteeism_data_12.xlsx
+++ b/data/input/absenteeism_data_12.xlsx
@@ -476,103 +476,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>17427</v>
+        <v>34731</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sr. Igor Ferreira</t>
+          <t>Davi Lucca Teixeira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45091</v>
       </c>
       <c r="G2" t="n">
-        <v>8152.02</v>
+        <v>10432.01</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>5896</v>
+        <v>45294</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fernanda Cavalcanti</t>
+          <t>Sr. Bernardo Ribeiro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45106</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>7109.25</v>
+        <v>4984.45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>20792</v>
+        <v>23178</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Luiz Felipe Costela</t>
+          <t>Clara Caldeira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45103</v>
+        <v>45093</v>
       </c>
       <c r="G4" t="n">
-        <v>6314.65</v>
+        <v>3727.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>95928</v>
+        <v>27540</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Heitor Azevedo</t>
+          <t>Alexandre Lima</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,56 +581,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45100</v>
+        <v>45104</v>
       </c>
       <c r="G5" t="n">
-        <v>11969.04</v>
+        <v>12416.77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>16328</v>
+        <v>54913</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bruno Monteiro</t>
+          <t>Sr. Augusto Pinto</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45101</v>
+        <v>45095</v>
       </c>
       <c r="G6" t="n">
-        <v>9508.17</v>
+        <v>2814.13</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>3149</v>
+        <v>61675</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Stephany Nascimento</t>
+          <t>Sr. Ian Campos</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,80 +639,80 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45078</v>
       </c>
       <c r="G7" t="n">
-        <v>11815.91</v>
+        <v>6250.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>5990</v>
+        <v>4464</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pedro Miguel da Paz</t>
+          <t>Maysa Novaes</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45098</v>
+        <v>45083</v>
       </c>
       <c r="G8" t="n">
-        <v>4607.96</v>
+        <v>6317.9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>942</v>
+        <v>65978</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Eloah Souza</t>
+          <t>Dr. Eduardo Campos</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45101</v>
+        <v>45104</v>
       </c>
       <c r="G9" t="n">
-        <v>7624.62</v>
+        <v>10177.73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>57203</v>
+        <v>64930</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Dr. Erick Silveira</t>
+          <t>Pedro Correia</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -726,22 +726,22 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45096</v>
+        <v>45089</v>
       </c>
       <c r="G10" t="n">
-        <v>5511.34</v>
+        <v>12220.82</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>10326</v>
+        <v>21449</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Alexia Duarte</t>
+          <t>Eduardo Lopes</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -751,17 +751,17 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45104</v>
+        <v>45079</v>
       </c>
       <c r="G11" t="n">
-        <v>11662.84</v>
+        <v>5096.24</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_12.xlsx
+++ b/data/input/absenteeism_data_12.xlsx
@@ -476,45 +476,45 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34731</v>
+        <v>7443</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Davi Lucca Teixeira</t>
+          <t>Milena Nascimento</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45091</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>10432.01</v>
+        <v>8591.389999999999</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>45294</v>
+        <v>94102</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sr. Bernardo Ribeiro</t>
+          <t>Ana Clara Aragão</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -523,56 +523,56 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45088</v>
+        <v>45104</v>
       </c>
       <c r="G3" t="n">
-        <v>4984.45</v>
+        <v>4344.86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>23178</v>
+        <v>4406</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Clara Caldeira</t>
+          <t>Srta. Maria Alice Alves</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45093</v>
+        <v>45090</v>
       </c>
       <c r="G4" t="n">
-        <v>3727.59</v>
+        <v>3972.3</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>27540</v>
+        <v>28366</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alexandre Lima</t>
+          <t>Bruna da Costa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -581,187 +581,187 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45104</v>
+        <v>45097</v>
       </c>
       <c r="G5" t="n">
-        <v>12416.77</v>
+        <v>11679.42</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>54913</v>
+        <v>32474</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sr. Augusto Pinto</t>
+          <t>João Pedro Pereira</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45095</v>
+        <v>45092</v>
       </c>
       <c r="G6" t="n">
-        <v>2814.13</v>
+        <v>12386.31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>61675</v>
+        <v>15673</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sr. Ian Campos</t>
+          <t>Bruno Barbosa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45078</v>
+        <v>45101</v>
       </c>
       <c r="G7" t="n">
-        <v>6250.6</v>
+        <v>6434.46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4464</v>
+        <v>59457</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Maysa Novaes</t>
+          <t>Luiz Henrique Barbosa</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Operações</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E8" t="n">
         <v>8</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45083</v>
+        <v>45089</v>
       </c>
       <c r="G8" t="n">
-        <v>6317.9</v>
+        <v>11533.76</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>65978</v>
+        <v>39677</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Dr. Eduardo Campos</t>
+          <t>Ana Júlia da Rosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>45104</v>
+        <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>10177.73</v>
+        <v>9494.77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>64930</v>
+        <v>62640</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pedro Correia</t>
+          <t>Otávio Cavalcanti</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Viagem de negócios</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45089</v>
+        <v>45099</v>
       </c>
       <c r="G10" t="n">
-        <v>12220.82</v>
+        <v>4313.52</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>21449</v>
+        <v>31905</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Eduardo Lopes</t>
+          <t>Theo da Cruz</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45079</v>
+        <v>45091</v>
       </c>
       <c r="G11" t="n">
-        <v>5096.24</v>
+        <v>6453.86</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/absenteeism_data_12.xlsx
+++ b/data/input/absenteeism_data_12.xlsx
@@ -476,161 +476,161 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>7443</v>
+        <v>32588</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Milena Nascimento</t>
+          <t>Benício Vieira</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G2" t="n">
-        <v>8591.389999999999</v>
+        <v>9290.23</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>94102</v>
+        <v>22163</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ana Clara Aragão</t>
+          <t>João Felipe Azevedo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Consulta médica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>45104</v>
+        <v>45088</v>
       </c>
       <c r="G3" t="n">
-        <v>4344.86</v>
+        <v>10081.94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4406</v>
+        <v>91188</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Maria Alice Alves</t>
+          <t>Amanda Farias</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>45090</v>
+        <v>45094</v>
       </c>
       <c r="G4" t="n">
-        <v>3972.3</v>
+        <v>7712.55</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28366</v>
+        <v>5668</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bruna da Costa</t>
+          <t>João Pedro Santos</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Operações</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Doença</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>45097</v>
+        <v>45081</v>
       </c>
       <c r="G5" t="n">
-        <v>11679.42</v>
+        <v>4333.35</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>32474</v>
+        <v>5367</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>João Pedro Pereira</t>
+          <t>Leonardo Campos</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jurídico</t>
+          <t>Vendas</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E6" t="n">
         <v>3</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>45092</v>
+        <v>45083</v>
       </c>
       <c r="G6" t="n">
-        <v>12386.31</v>
+        <v>11030.68</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15673</v>
+        <v>56238</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bruno Barbosa</t>
+          <t>Bruno Moraes</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -639,85 +639,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>45101</v>
+        <v>45102</v>
       </c>
       <c r="G7" t="n">
-        <v>6434.46</v>
+        <v>7717.81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>59457</v>
+        <v>51936</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Luiz Henrique Barbosa</t>
+          <t>Emanuella Rezende</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Viagem de negócios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>45089</v>
+        <v>45103</v>
       </c>
       <c r="G8" t="n">
-        <v>11533.76</v>
+        <v>8611.370000000001</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39677</v>
+        <v>8363</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Ana Júlia da Rosa</t>
+          <t>Sra. Yasmin Castro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F9" s="2" t="n">
         <v>45086</v>
       </c>
       <c r="G9" t="n">
-        <v>9494.77</v>
+        <v>4402.4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>62640</v>
+        <v>33916</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Otávio Cavalcanti</t>
+          <t>Mirella Cunha</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -726,42 +726,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>45099</v>
+        <v>45105</v>
       </c>
       <c r="G10" t="n">
-        <v>4313.52</v>
+        <v>5714.95</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>31905</v>
+        <v>86080</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Theo da Cruz</t>
+          <t>Leandro da Rocha</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Jurídico</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Consulta médica</t>
+          <t>Doença</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>45091</v>
+        <v>45088</v>
       </c>
       <c r="G11" t="n">
-        <v>6453.86</v>
+        <v>8691.610000000001</v>
       </c>
     </row>
   </sheetData>
